--- a/medicine/Psychotrope/Tomintoul_(distillerie)/Tomintoul_(distillerie).xlsx
+++ b/medicine/Psychotrope/Tomintoul_(distillerie)/Tomintoul_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tomintoul est une distillerie de whisky fondée en 1964 à Ballindalloch, dans le council area de Moray en Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Tomintoul fut fondée par les sociétés de vente de whisky W. &amp; S. Strong &amp; Co et Hay &amp; HacLeod &amp; Co en 1964, dans le prestigieux secteur de Glenlivet, près de la rivière Avon, dans le Speyside. Elle porte le nom de l'un des plus hauts villages des Highlands (altitude 350 m). L'eau utilisée vient de la source Ballantruan, qui coule des collines de Cromdale.
 La production débuta en juillet 1965. En 1973 l'entreprise possédée par la famille Fraser Scottish &amp; Universal Investment Trust acheta les distilleries Tomintoul et Fettercairn, avant de revendre Tomintoul à Whyte and Mackay Ltd.
@@ -547,7 +561,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brassage est réalisé dans des cuves de type semi-Lauter. Les quatre alambics, chauffés à la vapeur, sont surmontés d'une sphère aplatie à la base de leur col (boil ball).
 Le vieillissement de l'alcool se fait avec une combinaison de fûts en chêne ayant servi à la production de Bourbon et de fûts de Xérès.
@@ -581,11 +597,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le whisky de Tomintoul entre encore dans la composition des blends du groupe Whyte &amp; MacKay[1], son propriétaire depuis 1973 jusqu'en 2000.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le whisky de Tomintoul entre encore dans la composition des blends du groupe Whyte &amp; MacKay, son propriétaire depuis 1973 jusqu'en 2000.
 Embouteillages officiels
-Depuis 2008, les seuls embouteillages commercialisés sont[2]:
+Depuis 2008, les seuls embouteillages commercialisés sont:
 Tomintoul 10 ans ;
 Tomintoul 16 ans ;
 Tomintoul 25 ans ;
